--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail3 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>1.555964692408527e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.9500738645449041</v>
+        <v>9.926930440497378e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.139805958690101</v>
+        <v>2.15147317089815e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.926930440497378e-07</v>
+        <v>0.06278941771443133</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.15147317089815e-06</v>
+        <v>0.3318717050717387</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06278941771443133</v>
+        <v>0.1139026086970074</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3318717050717387</v>
+        <v>1.912678982398258</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1139026086970074</v>
+        <v>3.320338917892886</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.94735389089841</v>
+        <v>5.50741799078529</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.320338917892886</v>
+        <v>1.158234073097765e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.50741799078529</v>
+        <v>12517721788.46312</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.158234073097765e-17</v>
+        <v>9.618190851124437e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12517721788.46312</v>
+        <v>1814.875871594431</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.618190851124437e-09</v>
+        <v>6.3670542171035e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1814.875871594431</v>
+        <v>9.073816069363332</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.3670542171035e-05</v>
+        <v>1.506286482469964</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.073816069363332</v>
+        <v>0.005242259209505556</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.506286482469964</v>
+        <v>5.250576315756911</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005242259209505556</v>
+        <v>0.9656656662223646</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.250576315756911</v>
+        <v>0.9288810818317137</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9656656662223646</v>
+        <v>282</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9288810818317137</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.036973900759319</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>1.348791446126282e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.03629033320344535</v>
+        <v>7.61793240103555e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2863591651773758</v>
+        <v>2.159188586723945e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.61793240103555e-07</v>
+        <v>0.04330283516130751</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.159188586723945e-06</v>
+        <v>0.3174988918027336</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04330283516130751</v>
+        <v>0.1025282396358215</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3174988918027336</v>
+        <v>1.924008925958282</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1025282396358215</v>
+        <v>3.291647582634385</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.955025726435181</v>
+        <v>5.525765251496887</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.291647582634385</v>
+        <v>1.150555446688643e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.525765251496887</v>
+        <v>13347917654.11498</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.150555446688643e-17</v>
+        <v>9.075650618372883e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>13347917654.11498</v>
+        <v>2049.909037739871</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.075650618372883e-09</v>
+        <v>6.130361294458164e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2049.909037739871</v>
+        <v>10.91373930119013</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.130361294458164e-05</v>
+        <v>1.381378222796962</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.91373930119013</v>
+        <v>0.007301855286020402</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.381378222796962</v>
+        <v>5.281799040783953</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007301855286020402</v>
+        <v>0.9654453092021432</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.281799040783953</v>
+        <v>0.9690554903209164</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9654453092021432</v>
+        <v>320</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9690554903209164</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>320</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.38024549258081</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>1.254395630897833e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4396882578068498</v>
+        <v>5.714256567954635e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7663038937524984</v>
+        <v>2.163350350022018e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.714256567954635e-07</v>
+        <v>0.02064965633519528</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.163350350022018e-06</v>
+        <v>0.2824857772176678</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02064965633519528</v>
+        <v>0.08009554798153788</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2824857772176678</v>
+        <v>1.927349905194495</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08009554798153788</v>
+        <v>3.129119575028503</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.954382393114605</v>
+        <v>5.768833390707077</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.129119575028503</v>
+        <v>1.055641419883857e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.768833390707077</v>
+        <v>14530335459.58423</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.055641419883857e-17</v>
+        <v>8.348004841474429e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>14530335459.58423</v>
+        <v>2228.782576353769</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.348004841474429e-09</v>
+        <v>6.085169990193601e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2228.782576353769</v>
+        <v>8.251221483642096</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.085169990193601e-05</v>
+        <v>1.50333511909853</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.251221483642096</v>
+        <v>0.004142945349742006</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.50333511909853</v>
+        <v>5.176213691877598</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.004142945349742006</v>
+        <v>0.9650778932408111</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.176213691877598</v>
+        <v>0.9629215765121788</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9650778932408111</v>
+        <v>367</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9629215765121788</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>367</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.754733418812507</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>1.234219328652861e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5246405886439042</v>
+        <v>4.211181932210878e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8642036731724878</v>
+        <v>2.164473470848646e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.211181932210878e-07</v>
+        <v>-0.002203750378318756</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.164473470848646e-06</v>
+        <v>0.2285415932872701</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.002203750378318756</v>
+        <v>0.05212950533988252</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2285415932872701</v>
+        <v>1.928978997528495</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05212950533988252</v>
+        <v>3.107302258677314</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.951932910136243</v>
+        <v>6.163658078543349</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.107302258677314</v>
+        <v>8.849489852228692e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.163658078543349</v>
+        <v>17037215817.17967</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.849489852228692e-18</v>
+        <v>7.117744616457707e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>17037215817.17967</v>
+        <v>2568.712417868518</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.117744616457707e-09</v>
+        <v>6.392697834513224e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2568.712417868518</v>
+        <v>6.508863135500344</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.392697834513224e-05</v>
+        <v>1.385441855657505</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.508863135500344</v>
+        <v>0.002708285572002153</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.385441855657505</v>
+        <v>5.207700586799055</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002708285572002153</v>
+        <v>0.9631546763518367</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.207700586799055</v>
+        <v>0.9274691728037052</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9631546763518367</v>
+        <v>391</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9274691728037052</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>391</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.842835973677765</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>1.249078190663342e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5060290269086752</v>
+        <v>4.254612994583485e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8834282029895295</v>
+        <v>2.162901615073534e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.254612994583485e-07</v>
+        <v>-0.02228183556747306</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.162901615073534e-06</v>
+        <v>0.1661003599668354</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02228183556747306</v>
+        <v>0.02801229409695569</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1661003599668354</v>
+        <v>1.934778404067135</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02801229409695569</v>
+        <v>3.352699204424435</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.957679092687548</v>
+        <v>6.63654143958142</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.352699204424435</v>
+        <v>7.633288766668586e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.63654143958142</v>
+        <v>19841779594.67817</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.633288766668586e-18</v>
+        <v>6.119284231718987e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>19841779594.67817</v>
+        <v>3005.196914398902</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.119284231718987e-09</v>
+        <v>5.995691121555521e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3005.196914398902</v>
+        <v>6.666835763077112</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5.995691121555521e-05</v>
+        <v>1.365950972324253</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.666835763077112</v>
+        <v>0.002664886791274189</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.365950972324253</v>
+        <v>5.586048321411779</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.002664886791274189</v>
+        <v>0.963801912199535</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.586048321411779</v>
+        <v>0.9606152119748975</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.963801912199535</v>
+        <v>430</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9606152119748975</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>430</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>6.340458652168667</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>1.266929416905598e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5270001191199953</v>
+        <v>4.296878022566043e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8787155380447156</v>
+        <v>2.159058404416194e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.296878022566043e-07</v>
+        <v>-0.03779476757719747</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.159058404416194e-06</v>
+        <v>0.1085535210645551</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03779476757719747</v>
+        <v>0.01317420746558727</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1085535210645551</v>
+        <v>1.933249548399318</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01317420746558727</v>
+        <v>3.407986914072677</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.961799304289519</v>
+        <v>5.820827707542726</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.407986914072677</v>
+        <v>7.396713389919459e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.820827707542726</v>
+        <v>19959090383.3061</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.396713389919459e-18</v>
+        <v>6.072633753160154e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>19959090383.3061</v>
+        <v>2946.593866700137</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.072633753160154e-09</v>
+        <v>4.936744849729229e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2946.593866700137</v>
+        <v>7.874946615325126</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.936744849729229e-05</v>
+        <v>1.372699849867662</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.874946615325126</v>
+        <v>0.003061511664778885</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.372699849867662</v>
+        <v>6.287797372498949</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003061511664778885</v>
+        <v>0.9623229326970458</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.287797372498949</v>
+        <v>0.919075511263164</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9623229326970458</v>
+        <v>417</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.919075511263164</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>417</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>9.248044147625066</v>
       </c>
     </row>
@@ -5252,72 +5204,66 @@
         <v>1.270866689147272e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5755225672214047</v>
+        <v>4.337711234990658e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7911767556588023</v>
+        <v>2.153528793268548e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.337711234990658e-07</v>
+        <v>-0.04840705966611492</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.153528793268548e-06</v>
+        <v>0.06662384021273345</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04840705966611492</v>
+        <v>0.006768485181493892</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06662384021273345</v>
+        <v>1.935678532496967</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.006768485181493892</v>
+        <v>3.15750970190471</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.961110118802348</v>
+        <v>5.790918982030871</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.15750970190471</v>
+        <v>7.473315242513997e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.790918982030871</v>
+        <v>19592143005.76644</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.473315242513997e-18</v>
+        <v>6.167398167184304e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>19592143005.76644</v>
+        <v>2868.647507354725</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.167398167184304e-09</v>
+        <v>3.26349170046836e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2868.647507354725</v>
+        <v>11.57518322315396</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.26349170046836e-05</v>
+        <v>1.166243773437255</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.57518322315396</v>
+        <v>0.0043725850029928</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.166243773437255</v>
+        <v>7.233342096055287</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0043725850029928</v>
+        <v>0.9615700472394966</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.233342096055287</v>
+        <v>0.8612973502277409</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9615700472394966</v>
+        <v>404</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8612973502277409</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>13.75588826807044</v>
       </c>
     </row>
@@ -5332,72 +5278,66 @@
         <v>1.258314784415911e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6161514169501769</v>
+        <v>4.376966062584101e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6774186779114357</v>
+        <v>2.146945233399176e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.376966062584101e-07</v>
+        <v>-0.05502761989642346</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.146945233399176e-06</v>
+        <v>0.04395116197846995</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05502761989642346</v>
+        <v>0.004956778079950371</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04395116197846995</v>
+        <v>1.931827440674547</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004956778079950371</v>
+        <v>3.118920072206943</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.959014608821857</v>
+        <v>6.009587405010571</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.118920072206943</v>
+        <v>6.939352804562791e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.009587405010571</v>
+        <v>20960222162.71149</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.939352804562791e-18</v>
+        <v>5.778400730964122e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>20960222162.71149</v>
+        <v>3048.67220402255</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.778400730964122e-09</v>
+        <v>2.146428584247239e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3048.67220402255</v>
+        <v>14.31127792654434</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.146428584247239e-05</v>
+        <v>1.02502396018728</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>14.31127792654434</v>
+        <v>0.004396157819481683</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.02502396018728</v>
+        <v>7.851934355140081</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.004396157819481683</v>
+        <v>0.9627720868117524</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>7.851934355140081</v>
+        <v>0.9154020708017602</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9627720868117524</v>
+        <v>404</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9154020708017602</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>16.99041938824458</v>
       </c>
     </row>
@@ -5412,72 +5352,66 @@
         <v>1.233326556604958e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6352917374934572</v>
+        <v>4.414958465328069e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5914929494287042</v>
+        <v>2.1398080392616e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.414958465328069e-07</v>
+        <v>-0.05914558049731685</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.1398080392616e-06</v>
+        <v>0.03572931575981176</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05914558049731685</v>
+        <v>0.004774773505204883</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03572931575981176</v>
+        <v>1.940274687143661</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004774773505204883</v>
+        <v>3.599109159724493</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.966466160089369</v>
+        <v>6.580044199044197</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.599109159724493</v>
+        <v>5.788295022693694e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.580044199044197</v>
+        <v>25672587365.95247</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.788295022693694e-18</v>
+        <v>4.724899205827486e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>25672587365.95247</v>
+        <v>3814.95956712844</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.724899205827486e-09</v>
+        <v>1.557551542885875e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3814.95956712844</v>
+        <v>11.54927642748053</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1.557551542885875e-05</v>
+        <v>1.323666834080663</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.54927642748053</v>
+        <v>0.002077552367807868</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.323666834080663</v>
+        <v>8.227979877587549</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.002077552367807868</v>
+        <v>0.9626667660444823</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.227979877587549</v>
+        <v>0.6806627365326978</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9626667660444823</v>
+        <v>437</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6806627365326978</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>437</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>18.07463851671467</v>
       </c>
     </row>
@@ -5492,72 +5426,66 @@
         <v>1.200510570512055e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6321648432024352</v>
+        <v>4.451451682719041e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5535650431411687</v>
+        <v>2.132434572739785e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.451451682719041e-07</v>
+        <v>-0.06179445228962884</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.132434572739785e-06</v>
+        <v>0.03478140818210261</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06179445228962884</v>
+        <v>0.005028716715858505</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03478140818210261</v>
+        <v>1.941939877681558</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005028716715858505</v>
+        <v>3.802071546401801</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.964436800555342</v>
+        <v>9.504333318881333</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.802071546401801</v>
+        <v>3.556834924502549e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.504333318881333</v>
+        <v>43578062126.31598</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.556834924502549e-18</v>
+        <v>2.78820344765863e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>43578062126.31598</v>
+        <v>6754.598466612214</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.78820344765863e-09</v>
+        <v>6.633227037379895e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6754.598466612214</v>
+        <v>9.618894139578886</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.633227037379895e-06</v>
+        <v>1.434417647622344</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.618894139578886</v>
+        <v>0.0006137268908068223</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.434417647622344</v>
+        <v>8.598523101734031</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0006137268908068223</v>
+        <v>0.9620294381504019</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.598523101734031</v>
+        <v>0.7050059919229936</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9620294381504019</v>
+        <v>481</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7050059919229936</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>481</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>20.13170651877108</v>
       </c>
     </row>
@@ -5572,72 +5500,66 @@
         <v>1.163630849844858e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.610156731276753</v>
+        <v>4.423994854746602e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5650194774842081</v>
+        <v>2.125025702219883e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.423994854746602e-07</v>
+        <v>-0.06336458843246183</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.125025702219883e-06</v>
+        <v>0.03598109724435874</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06336458843246183</v>
+        <v>0.005309619391551556</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03598109724435874</v>
+        <v>1.937660618410933</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005309619391551556</v>
+        <v>3.688689382906229</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.961169511835102</v>
+        <v>11.41519936545351</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.688689382906229</v>
+        <v>2.880686069491865e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>11.41519936545351</v>
+        <v>54682279014.94685</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.880686069491865e-18</v>
+        <v>2.222406900244771e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>54682279014.94685</v>
+        <v>8613.688170028336</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.222406900244771e-09</v>
+        <v>3.475399323880176e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8613.688170028336</v>
+        <v>7.332963083205692</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3.475399323880176e-06</v>
+        <v>1.759570431019613</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.332963083205692</v>
+        <v>0.0001868803804217916</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.759570431019613</v>
+        <v>8.77785981954826</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001868803804217916</v>
+        <v>0.9644419169799651</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.77785981954826</v>
+        <v>0.6796747129657154</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9644419169799651</v>
+        <v>497</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6796747129657154</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>497</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>21.57956405260149</v>
       </c>
     </row>
@@ -5652,72 +5574,66 @@
         <v>1.125866386238992e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5755849204128102</v>
+        <v>4.325122046858306e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.6136602237633673</v>
+        <v>2.117727605104807e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.325122046858306e-07</v>
+        <v>-0.06402935677276582</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.117727605104807e-06</v>
+        <v>0.03672090658550144</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06402935677276582</v>
+        <v>0.005447385635337481</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.03672090658550144</v>
+        <v>1.943540060604448</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005447385635337481</v>
+        <v>3.487473432743314</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.965655935289332</v>
+        <v>11.62136183868759</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.487473432743314</v>
+        <v>2.779386138104206e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>11.62136183868759</v>
+        <v>58420363299.73458</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.779386138104206e-18</v>
+        <v>2.086016886146125e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>58420363299.73458</v>
+        <v>9485.874924531361</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.086016886146125e-09</v>
+        <v>3.043690550007707e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9485.874924531361</v>
+        <v>6.014521671784427</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.043690550007707e-06</v>
+        <v>2.023706282245701</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.014521671784427</v>
+        <v>0.000110103895352716</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.023706282245701</v>
+        <v>8.798691386931825</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.000110103895352716</v>
+        <v>0.9641938594737266</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.798691386931825</v>
+        <v>0.6810302036026299</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9641938594737266</v>
+        <v>506</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6810302036026299</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>506</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>21.52837655921518</v>
       </c>
     </row>
@@ -5732,72 +5648,66 @@
         <v>1.089382567800634e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5348763403151389</v>
+        <v>4.187785228154241e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6835544878212403</v>
+        <v>2.110629630636471e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.187785228154241e-07</v>
+        <v>-0.06407439080616734</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.110629630636471e-06</v>
+        <v>0.03626098426817807</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06407439080616734</v>
+        <v>0.005419001981150921</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.03626098426817807</v>
+        <v>1.942672663681778</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005419001981150921</v>
+        <v>3.352490360262498</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.964611639609612</v>
+        <v>11.85442764638568</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.352490360262498</v>
+        <v>2.671171383901518e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>11.85442764638568</v>
+        <v>60951902118.01344</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.671171383901518e-18</v>
+        <v>1.998274526193048e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>60951902118.01344</v>
+        <v>9923.7606213115</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.998274526193048e-09</v>
+        <v>3.900683213575296e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9923.7606213115</v>
+        <v>6.47319526805518</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>3.900683213575296e-06</v>
+        <v>1.842896111055547</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.47319526805518</v>
+        <v>0.0001634474304064539</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.842896111055547</v>
+        <v>8.713988624535109</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001634474304064539</v>
+        <v>0.9622863442873556</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.713988624535109</v>
+        <v>0.6746438724552887</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9622863442873556</v>
+        <v>499</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6746438724552887</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>499</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>20.21738749450522</v>
       </c>
     </row>
@@ -5812,72 +5722,66 @@
         <v>1.055474068352344e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.4934775907643386</v>
+        <v>4.031022743900582e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7600680973556204</v>
+        <v>2.103779016645379e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.031022743900582e-07</v>
+        <v>-0.06365843021704971</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.103779016645379e-06</v>
+        <v>0.0345817356826017</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06365843021704971</v>
+        <v>0.005246536479037787</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0345817356826017</v>
+        <v>1.946469693390481</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005246536479037787</v>
+        <v>3.499800483287299</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.97120181272174</v>
+        <v>12.47711057362938</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.499800483287299</v>
+        <v>2.411209168320217e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>12.47711057362938</v>
+        <v>64950235179.23724</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.411209168320217e-18</v>
+        <v>1.877314775560573e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>64950235179.23724</v>
+        <v>10171.76556663178</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.877314775560573e-09</v>
+        <v>4.787445092555387e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>10171.76556663178</v>
+        <v>7.144461847756072</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.787445092555387e-06</v>
+        <v>1.708676252488855</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.144461847756072</v>
+        <v>0.0002443671641036321</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.708676252488855</v>
+        <v>8.643909532480388</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0002443671641036321</v>
+        <v>0.9623909413645377</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.643909532480388</v>
+        <v>0.6742292795687613</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9623909413645377</v>
+        <v>496</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6742292795687613</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>19.35546743753275</v>
       </c>
     </row>
@@ -5892,72 +5796,66 @@
         <v>1.024812745219922e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.4556487099619571</v>
+        <v>3.868927792629277e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8314421070657412</v>
+        <v>2.097195788249203e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.868927792629277e-07</v>
+        <v>-0.06292704376867092</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.097195788249203e-06</v>
+        <v>0.0319531985858782</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06292704376867092</v>
+        <v>0.004978952608458635</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0319531985858782</v>
+        <v>1.950511406004634</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004978952608458635</v>
+        <v>3.352476140900786</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.972579819687778</v>
+        <v>12.49085127390944</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.352476140900786</v>
+        <v>2.405907131122141e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>12.49085127390944</v>
+        <v>65047698916.30148</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.405907131122141e-18</v>
+        <v>1.873735540323286e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>65047698916.30148</v>
+        <v>10179.8817940527</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.873735540323286e-09</v>
+        <v>4.658214259382816e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10179.8817940527</v>
+        <v>7.48866582909855</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>4.658214259382816e-06</v>
+        <v>1.713218824879078</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.48866582909855</v>
+        <v>0.0002612331955527937</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.713218824879078</v>
+        <v>8.666379728728389</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0002612331955527937</v>
+        <v>0.9604067058567681</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.666379728728389</v>
+        <v>0.6856265785755562</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9604067058567681</v>
+        <v>511</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6856265785755562</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>511</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>19.46744719244397</v>
       </c>
     </row>
@@ -5972,72 +5870,66 @@
         <v>9.975522153289318e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4240355878284</v>
+        <v>3.712726068615461e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.8904471283447672</v>
+        <v>2.090879262773933e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.712726068615461e-07</v>
+        <v>-0.06203648418227604</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.090879262773933e-06</v>
+        <v>0.02882341004055513</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06203648418227604</v>
+        <v>0.004677584907591336</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02882341004055513</v>
+        <v>1.945138065683726</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004677584907591336</v>
+        <v>3.352812631912347</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.968448635145253</v>
+        <v>12.73093175121876</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.352812631912347</v>
+        <v>2.316021326456512e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>12.73093175121876</v>
+        <v>66070691693.53549</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.316021326456512e-18</v>
+        <v>1.840949751494665e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>66070691693.53549</v>
+        <v>10110.21196995168</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.840949751494665e-09</v>
+        <v>4.05854535484597e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>10110.21196995168</v>
+        <v>7.047526370936248</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>4.05854535484597e-06</v>
+        <v>1.770038136476056</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.047526370936248</v>
+        <v>0.0002015783206988017</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.770038136476056</v>
+        <v>8.692151520607368</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0002015783206988017</v>
+        <v>0.959670881971347</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.692151520607368</v>
+        <v>0.6940906935741125</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.959670881971347</v>
+        <v>523</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6940906935741125</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>523</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>20.04636272519404</v>
       </c>
     </row>
@@ -6052,72 +5944,66 @@
         <v>9.734398899307387e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3994452846900897</v>
+        <v>3.571972927271851e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9348210768148806</v>
+        <v>2.084811355480651e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.571972927271851e-07</v>
+        <v>-0.06116221755807272</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.084811355480651e-06</v>
+        <v>0.02580060657971217</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06116221755807272</v>
+        <v>0.004405099773641246</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02580060657971217</v>
+        <v>1.936112669210971</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004405099773641246</v>
+        <v>3.22582089311773</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.964053688964056</v>
+        <v>12.98093999599433</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.22582089311773</v>
+        <v>2.227668938176559e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>12.98093999599433</v>
+        <v>65433637937.61511</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.227668938176559e-18</v>
+        <v>1.844418504887375e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>65433637937.61511</v>
+        <v>9537.90038813387</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.844418504887375e-09</v>
+        <v>4.146703142993082e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>9537.90038813387</v>
+        <v>6.406049041199729</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>4.146703142993082e-06</v>
+        <v>1.788203959860466</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>6.406049041199729</v>
+        <v>0.0001701701822689785</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.788203959860466</v>
+        <v>8.657403260289735</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0001701701822689785</v>
+        <v>0.9587890589811493</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.657403260289735</v>
+        <v>0.6756250607941211</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9587890589811493</v>
+        <v>525</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6756250607941211</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>525</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>20.02097484882501</v>
       </c>
     </row>
@@ -6132,72 +6018,66 @@
         <v>9.519209506168084e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3810738359140624</v>
+        <v>3.450695469126494e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9664966841396314</v>
+        <v>2.078961490995746e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.450695469126494e-07</v>
+        <v>-0.06042046148613159</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.078961490995746e-06</v>
+        <v>0.02339022988471599</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06042046148613159</v>
+        <v>0.004196643330559333</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02339022988471599</v>
+        <v>1.930694341599031</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004196643330559333</v>
+        <v>3.451217743278261</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.960755437235272</v>
+        <v>13.0342629357917</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.451217743278261</v>
+        <v>2.209479512070849e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>13.0342629357917</v>
+        <v>65368337851.82252</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.209479512070849e-18</v>
+        <v>1.844950108184444e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>65368337851.82252</v>
+        <v>9441.149246537681</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.844950108184444e-09</v>
+        <v>4.759577516986255e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>9441.149246537681</v>
+        <v>6.098079376512345</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>4.759577516986255e-06</v>
+        <v>1.693101152702297</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>6.098079376512345</v>
+        <v>0.000176992372416443</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.693101152702297</v>
+        <v>8.59042661068281</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.000176992372416443</v>
+        <v>0.9604595749460187</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.59042661068281</v>
+        <v>0.6864267176850977</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9604595749460187</v>
+        <v>511</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6864267176850977</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>511</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>19.32795449392111</v>
       </c>
     </row>
@@ -6212,72 +6092,66 @@
         <v>9.324774329119218e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3679829653000935</v>
+        <v>3.34170215982104e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9877151492667706</v>
+        <v>2.073302612779693e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.34170215982104e-07</v>
+        <v>-0.059731455806293</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.073302612779693e-06</v>
+        <v>0.0213045396341485</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.059731455806293</v>
+        <v>0.004020832814263338</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.0213045396341485</v>
+        <v>1.933200861842197</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004020832814263338</v>
+        <v>3.506709376866014</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.966623929807964</v>
+        <v>12.78992094644722</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.506709376866014</v>
+        <v>2.294706859012635e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>12.78992094644722</v>
+        <v>63511276587.12704</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.294706859012635e-18</v>
+        <v>1.899873372715015e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>63511276587.12704</v>
+        <v>9256.118334703862</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.899873372715015e-09</v>
+        <v>5.153044908034205e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>9256.118334703862</v>
+        <v>6.634719328587884</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>5.153044908034205e-06</v>
+        <v>1.678161549423498</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.634719328587884</v>
+        <v>0.0002268344632620036</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.678161549423498</v>
+        <v>8.557380614776259</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0002268344632620036</v>
+        <v>0.9621453025310638</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.557380614776259</v>
+        <v>0.7033772676294077</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9621453025310638</v>
+        <v>495</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7033772676294077</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>495</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>18.84492871223755</v>
       </c>
     </row>
@@ -6292,72 +6166,66 @@
         <v>9.146855494296969e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3595525072788472</v>
+        <v>3.246634319892316e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.9999621017736362</v>
+        <v>2.067814714379257e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.246634319892316e-07</v>
+        <v>-0.05915963464778608</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.067814714379257e-06</v>
+        <v>0.01988470342047945</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05915963464778608</v>
+        <v>0.003894698891620128</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01988470342047945</v>
+        <v>1.929792354549958</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003894698891620128</v>
+        <v>3.362916968295312</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.962171992266851</v>
+        <v>11.80669212865088</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.362916968295312</v>
+        <v>2.692814620511066e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>11.80669212865088</v>
+        <v>55493962523.95245</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.692814620511066e-18</v>
+        <v>2.17519605552266e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>55493962523.95245</v>
+        <v>8292.737716766636</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.17519605552266e-09</v>
+        <v>5.570113641916165e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8292.737716766636</v>
+        <v>6.331863137113891</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.570113641916165e-06</v>
+        <v>2.123813999209664</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.331863137113891</v>
+        <v>0.0002233197298718566</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>2.123813999209664</v>
+        <v>8.577786895712759</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0002233197298718566</v>
+        <v>0.9610241537312022</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.577786895712759</v>
+        <v>0.7300159809050032</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9610241537312022</v>
+        <v>462</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.7300159809050032</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>462</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>18.10589415715403</v>
       </c>
     </row>
@@ -6372,72 +6240,66 @@
         <v>8.978643911808674e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3540840586413698</v>
+        <v>3.170926631914253e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.007543655345276</v>
+        <v>2.062469607124815e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.170926631914253e-07</v>
+        <v>-0.05886068911923407</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.062469607124815e-06</v>
+        <v>0.01962665984120025</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05886068911923407</v>
+        <v>0.003849589933701826</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01962665984120025</v>
+        <v>1.925504443254744</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003849589933701826</v>
+        <v>3.070585729277383</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.958797172304594</v>
+        <v>10.18416786085122</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.070585729277383</v>
+        <v>3.6191937737627e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>10.18416786085122</v>
+        <v>41091866511.27895</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.6191937737627e-18</v>
+        <v>2.936302946405423e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>41091866511.27895</v>
+        <v>6111.158859583648</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.936302946405423e-09</v>
+        <v>9.082500462420121e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>6111.158859583648</v>
+        <v>7.658147051398878</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.082500462420121e-06</v>
+        <v>2.021132731013747</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.658147051398878</v>
+        <v>0.0005326633688088168</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>2.021132731013747</v>
+        <v>8.426840119845902</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0005326633688088168</v>
+        <v>0.9612807165577885</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.426840119845902</v>
+        <v>0.7293026238243796</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9612807165577885</v>
+        <v>442</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7293026238243796</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>442</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>17.11517973479528</v>
       </c>
     </row>
@@ -6452,72 +6314,66 @@
         <v>8.812240415642676e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3493850403030663</v>
+        <v>3.10364333356701e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.016513315611437</v>
+        <v>2.057239935647936e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.10364333356701e-07</v>
+        <v>-0.05869914078046758</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.057239935647936e-06</v>
+        <v>0.02011438965413179</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05869914078046758</v>
+        <v>0.003849998662229946</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02011438965413179</v>
+        <v>1.923797934700368</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003849998662229946</v>
+        <v>3.127932946963097</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.956961016004634</v>
+        <v>10.01434668887769</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.127932946963097</v>
+        <v>5.823431046974216e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>10.01434668887769</v>
+        <v>25225129023.0535</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.823431046974216e-18</v>
+        <v>4.787387610079104e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>25225129023.0535</v>
+        <v>3705.490720884402</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.787387610079104e-09</v>
+        <v>2.69002540339422e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3705.490720884402</v>
+        <v>10.64157441046545</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>2.69002540339422e-05</v>
+        <v>1.388923394584853</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.64157441046545</v>
+        <v>0.003046268317203056</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.388923394584853</v>
+        <v>7.724389895513917</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.003046268317203056</v>
+        <v>0.9617346834798906</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>7.724389895513917</v>
+        <v>0.7514728766415064</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9617346834798906</v>
+        <v>412</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.7514728766415064</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>412</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>14.73604297501581</v>
       </c>
     </row>
@@ -6532,72 +6388,66 @@
         <v>8.645269986156889e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3456021908508163</v>
+        <v>3.025567884371268e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.028072604442261</v>
+        <v>2.052130683094116e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.025567884371268e-07</v>
+        <v>-0.05832753521744791</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.052130683094116e-06</v>
+        <v>0.02070881393398482</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05832753521744791</v>
+        <v>0.003830707601482511</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02070881393398482</v>
+        <v>1.928299823360837</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003830707601482511</v>
+        <v>3.210619133739878</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.958672740483346</v>
+        <v>8.456904270177565</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.210619133739878</v>
+        <v>8.165849153241655e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>8.456904270177565</v>
+        <v>18577651581.06326</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>8.165849153241655e-18</v>
+        <v>6.512751498552871e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>18577651581.06326</v>
+        <v>2818.272481479725</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.512751498552871e-09</v>
+        <v>5.33941923157543e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2818.272481479725</v>
+        <v>12.61536432262342</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>5.33941923157543e-05</v>
+        <v>1.112970340052168</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.61536432262342</v>
+        <v>0.008497547789454146</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.112970340052168</v>
+        <v>6.796378483425732</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.008497547789454146</v>
+        <v>0.9611598940627571</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.796378483425732</v>
+        <v>0.743394333908921</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9611598940627571</v>
+        <v>408</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.743394333908921</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>408</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>12.14313636105329</v>
       </c>
     </row>
@@ -6974,7 +6824,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.349175228720048</v>
+        <v>1.346161452326704</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.628203505173238</v>
@@ -7063,7 +6913,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.333626451633293</v>
+        <v>1.329376362433825</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.602513236483</v>
@@ -7152,7 +7002,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.416615593491885</v>
+        <v>1.396145692588641</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.478284682293971</v>
@@ -7241,7 +7091,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484940256872838</v>
+        <v>1.471358289850949</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.885266695223768</v>
@@ -7330,7 +7180,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.537016164302673</v>
+        <v>1.514147386096397</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.082501985265774</v>
@@ -7419,7 +7269,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.57382808292196</v>
+        <v>1.561203674145778</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.334676846982841</v>
@@ -7508,7 +7358,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.583023112063033</v>
+        <v>1.570677125817443</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.237979902407022</v>
@@ -7597,7 +7447,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622769780626432</v>
+        <v>1.611049180223059</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.274065678857476</v>
@@ -7686,7 +7536,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64842714997211</v>
+        <v>1.632497456208156</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.330588412387907</v>
@@ -7775,7 +7625,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.646612432378353</v>
+        <v>1.632034535347113</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.225293658023466</v>
@@ -7864,7 +7714,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.656133980888936</v>
+        <v>1.651139717441498</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.265807457201204</v>
@@ -7953,7 +7803,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.656671688944754</v>
+        <v>1.64990279723056</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.274801571211551</v>
@@ -8042,7 +7892,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.663324354603619</v>
+        <v>1.655937815397545</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.224429293050536</v>
@@ -8131,7 +7981,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.669761524238962</v>
+        <v>1.66053816448127</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.283278489041759</v>
@@ -8220,7 +8070,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.715256647826094</v>
+        <v>1.69885846178149</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.217905561395603</v>
@@ -8309,7 +8159,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.803650253936151</v>
+        <v>1.763884453906137</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.679071904587591</v>
@@ -8398,7 +8248,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.795309172669049</v>
+        <v>1.75252385875038</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.054919887380307</v>
@@ -8487,7 +8337,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.792486813569327</v>
+        <v>1.749613302104941</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.043073230867825</v>
@@ -8576,7 +8426,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.780697765345618</v>
+        <v>1.73303247639859</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.248951115269357</v>
@@ -8665,7 +8515,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.784978953641083</v>
+        <v>1.731919904841772</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.521669029874265</v>
@@ -8754,7 +8604,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.773593001721217</v>
+        <v>1.71467940129291</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.070005038062532</v>
@@ -8843,7 +8693,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.763667590815531</v>
+        <v>1.700805000492779</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.827761466125104</v>
@@ -8932,7 +8782,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.7613532581295</v>
+        <v>1.69439046241833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.224295192492852</v>
@@ -9021,7 +8871,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.749140933337644</v>
+        <v>1.682762406695254</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.028884313677534</v>
@@ -9110,7 +8960,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.747899321553031</v>
+        <v>1.676849705322396</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.747934955244181</v>
@@ -9199,7 +9049,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.7466279474412</v>
+        <v>1.671255025569383</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.380466495243106</v>
@@ -9288,7 +9138,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.743217830656457</v>
+        <v>1.666682543788201</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.080327149335549</v>
@@ -9377,7 +9227,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738264594476116</v>
+        <v>1.657952709942925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.399821464316998</v>
@@ -9466,7 +9316,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.737173439671867</v>
+        <v>1.658462276657828</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.276153146154437</v>
@@ -9555,7 +9405,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.733635954711586</v>
+        <v>1.652552674467206</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.545800090739072</v>
@@ -9644,7 +9494,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.718005739722212</v>
+        <v>1.633943123205327</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.163905825479997</v>
@@ -9733,7 +9583,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.709918888351474</v>
+        <v>1.62013099459547</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.381395100405337</v>
@@ -9822,7 +9672,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.69555165285905</v>
+        <v>1.60349321007264</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.956656727494122</v>
@@ -9911,7 +9761,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.688875071886133</v>
+        <v>1.607974557029692</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.221436065247379</v>
@@ -10000,7 +9850,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.664878297037739</v>
+        <v>1.595401353589571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.823449547276151</v>
@@ -10089,7 +9939,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67183770536986</v>
+        <v>1.604807146425266</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.893252250667813</v>
@@ -10178,7 +10028,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.620145458090508</v>
+        <v>1.578837251467805</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.461104459411989</v>
@@ -10267,7 +10117,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617823291381181</v>
+        <v>1.560950174477998</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.332925435673635</v>
@@ -10356,7 +10206,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.617251059164425</v>
+        <v>1.554220564035285</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.535474856488132</v>
@@ -10445,7 +10295,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.620885065474305</v>
+        <v>1.556664321937146</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.577430804918313</v>
@@ -10534,7 +10384,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.621034696597049</v>
+        <v>1.550618952518087</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.589831692256843</v>
@@ -10623,7 +10473,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.613689492036377</v>
+        <v>1.54454962808114</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.438155263621462</v>
@@ -10712,7 +10562,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.613351733771521</v>
+        <v>1.544463148398065</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.406921784964466</v>
@@ -10801,7 +10651,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.615372850040618</v>
+        <v>1.54975212035188</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.447993317209776</v>
@@ -10890,7 +10740,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.608009829989576</v>
+        <v>1.545076286088399</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.498461655890639</v>
@@ -10979,7 +10829,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.617888444511756</v>
+        <v>1.561343285198564</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.390389242967692</v>
@@ -11068,7 +10918,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.611861751251452</v>
+        <v>1.556682179297226</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.453795941163071</v>
@@ -11157,7 +11007,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.621456201877074</v>
+        <v>1.564553801024115</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.378017736063295</v>
@@ -11246,7 +11096,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.619728987950879</v>
+        <v>1.557208055130593</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.424162359863891</v>
@@ -11335,7 +11185,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.634602697051446</v>
+        <v>1.566285382410081</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.280073317923493</v>
@@ -11424,7 +11274,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638973624801107</v>
+        <v>1.56930422282643</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.255493235380384</v>
@@ -11513,7 +11363,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.683910618469389</v>
+        <v>1.593208923428577</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.349936933315071</v>
@@ -11602,7 +11452,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.694031699743256</v>
+        <v>1.619693077154909</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.616395601721998</v>
@@ -11691,7 +11541,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.701489162283816</v>
+        <v>1.630784350930246</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.627789433067939</v>
@@ -11780,7 +11630,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.686194723671586</v>
+        <v>1.619048682085408</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.223705924572047</v>
@@ -11869,7 +11719,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.681869128384604</v>
+        <v>1.624343103122689</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.757383368243596</v>
@@ -11958,7 +11808,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.68937120888514</v>
+        <v>1.634643127272113</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.401639512013706</v>
@@ -12047,7 +11897,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.688176907820582</v>
+        <v>1.63326083557213</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.514338360324422</v>
@@ -12136,7 +11986,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.675308954228347</v>
+        <v>1.620067548355129</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.484387714223855</v>
@@ -12225,7 +12075,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.689024260905176</v>
+        <v>1.630227115320628</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.285198918734997</v>
@@ -12314,7 +12164,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.688575736445874</v>
+        <v>1.627777724899644</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.603699430710561</v>
@@ -12403,7 +12253,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.695452376933266</v>
+        <v>1.638860017439697</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.717231700026988</v>
@@ -12492,7 +12342,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.710141041589651</v>
+        <v>1.652294348418117</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.811367709437674</v>
@@ -12581,7 +12431,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.73083254257965</v>
+        <v>1.668320874758335</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.910014782900151</v>
@@ -12670,7 +12520,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.73397200244099</v>
+        <v>1.667868831274591</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.605262585556628</v>
@@ -12759,7 +12609,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.73702835827372</v>
+        <v>1.667886439507821</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.935059343411783</v>
@@ -12848,7 +12698,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.741827257452398</v>
+        <v>1.670045066758722</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.82335781803594</v>
@@ -12937,7 +12787,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.735022712469656</v>
+        <v>1.664554342944034</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.214438558424399</v>
@@ -13223,7 +13073,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.339167821212042</v>
+        <v>1.32907472867168</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.083088622966146</v>
@@ -13312,7 +13162,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.378001835835666</v>
+        <v>1.380266266580483</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.820212023602733</v>
@@ -13401,7 +13251,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.396780110452338</v>
+        <v>1.399606658059404</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.029635547759778</v>
@@ -13490,7 +13340,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.399679076779629</v>
+        <v>1.398728938243302</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.939604089365581</v>
@@ -13579,7 +13429,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.484367055205953</v>
+        <v>1.471538988070674</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.795032272697156</v>
@@ -13668,7 +13518,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.502642686226282</v>
+        <v>1.488649955106186</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.942246022168277</v>
@@ -13757,7 +13607,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.529894709026627</v>
+        <v>1.514098818072155</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.920413151299871</v>
@@ -13846,7 +13696,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61180378883631</v>
+        <v>1.586081461272504</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.42890507232998</v>
@@ -13935,7 +13785,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.607599184115011</v>
+        <v>1.585127870264332</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.627523326361395</v>
@@ -14024,7 +13874,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607636351479452</v>
+        <v>1.587286382090594</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.552447791535748</v>
@@ -14113,7 +13963,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.581206630364585</v>
+        <v>1.566984184617598</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.283664964620119</v>
@@ -14202,7 +14052,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.5749009512821</v>
+        <v>1.561734212853275</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.404425272024502</v>
@@ -14291,7 +14141,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.577331416740779</v>
+        <v>1.564465392440613</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.376964060756655</v>
@@ -14380,7 +14230,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.576040029457645</v>
+        <v>1.56208149029442</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.249596252085791</v>
@@ -14469,7 +14319,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587533382913269</v>
+        <v>1.57203434729281</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.473832369496056</v>
@@ -14558,7 +14408,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573085369569641</v>
+        <v>1.561728542471298</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.449537449102307</v>
@@ -14647,7 +14497,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.567258629390492</v>
+        <v>1.555170234179395</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.414973966454285</v>
@@ -14736,7 +14586,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.553470915932486</v>
+        <v>1.541031182298243</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.364020345579391</v>
@@ -14825,7 +14675,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549638712115347</v>
+        <v>1.543142250802219</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.285256427338685</v>
@@ -14914,7 +14764,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.519721955146244</v>
+        <v>1.517822315899189</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.415597096608672</v>
@@ -15003,7 +14853,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.513747713569753</v>
+        <v>1.512403624510269</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.301523077197534</v>
@@ -15092,7 +14942,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.507696352725515</v>
+        <v>1.503517572798537</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.298765382686622</v>
@@ -15181,7 +15031,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.505541672240452</v>
+        <v>1.499819868568238</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.328491882741341</v>
@@ -15270,7 +15120,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.479390916090437</v>
+        <v>1.481102953940516</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.365609765232344</v>
@@ -15359,7 +15209,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509176119873199</v>
+        <v>1.505332048228082</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.416382597811745</v>
@@ -15448,7 +15298,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559314782823988</v>
+        <v>1.545122727168384</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.459376759417152</v>
@@ -15537,7 +15387,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.563669089241068</v>
+        <v>1.545973822898439</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.381445372553642</v>
@@ -15626,7 +15476,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.558655939169242</v>
+        <v>1.532771124874692</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.534855482418149</v>
@@ -15715,7 +15565,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562926226837602</v>
+        <v>1.534853275535331</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.495066152746741</v>
@@ -15804,7 +15654,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568648039845023</v>
+        <v>1.536931228299726</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.534123403454433</v>
@@ -15893,7 +15743,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.574852006859891</v>
+        <v>1.542764135359802</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.54917682164794</v>
@@ -15982,7 +15832,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.579176439494514</v>
+        <v>1.544644694021815</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.47493269366205</v>
@@ -16071,7 +15921,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584287500498927</v>
+        <v>1.545395080319371</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.605324265040651</v>
@@ -16160,7 +16010,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582318695028976</v>
+        <v>1.546075907290251</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.619143224503097</v>
@@ -16249,7 +16099,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.601164672374247</v>
+        <v>1.556536459160515</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.550626970159819</v>
@@ -16338,7 +16188,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.601382627111347</v>
+        <v>1.558079984113206</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.50571721740033</v>
@@ -16427,7 +16277,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.600721994354339</v>
+        <v>1.559282599928496</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.462247135420544</v>
@@ -16516,7 +16366,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.619401199325399</v>
+        <v>1.563940467381187</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.290778902774879</v>
@@ -16605,7 +16455,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.643107638339644</v>
+        <v>1.580748037070053</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.984955433806522</v>
@@ -16694,7 +16544,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.640782882005637</v>
+        <v>1.584411989889944</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.250773342997988</v>
@@ -16783,7 +16633,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.635339427309251</v>
+        <v>1.579976974034426</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.276932248601202</v>
@@ -16872,7 +16722,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.629576351251834</v>
+        <v>1.582213779739402</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.111665444589729</v>
@@ -16961,7 +16811,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.58811782479271</v>
+        <v>1.559540991749598</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.453746934479932</v>
@@ -17050,7 +16900,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.592296254436907</v>
+        <v>1.564920747221049</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.658008863315408</v>
@@ -17139,7 +16989,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598726774573618</v>
+        <v>1.565010329070688</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.517037251383957</v>
@@ -17228,7 +17078,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.607555943424584</v>
+        <v>1.573711102435865</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.512252658585824</v>
@@ -17317,7 +17167,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599350891952332</v>
+        <v>1.572261801107751</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.576012394486186</v>
@@ -17406,7 +17256,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.602183327723839</v>
+        <v>1.574217848133707</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.500501009677677</v>
@@ -17495,7 +17345,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.612739875828696</v>
+        <v>1.57393893991303</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.473585602529468</v>
@@ -17584,7 +17434,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.609630024983758</v>
+        <v>1.567829191203871</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.543994313497848</v>
@@ -17673,7 +17523,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603950095155528</v>
+        <v>1.560880727492686</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.504597195232513</v>
@@ -17762,7 +17612,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.585252272442854</v>
+        <v>1.539493683508175</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.573655549076117</v>
@@ -17851,7 +17701,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.565729742859806</v>
+        <v>1.52431939390914</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.467582394903042</v>
@@ -17940,7 +17790,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.531784897332394</v>
+        <v>1.500994571112735</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.50814118670414</v>
@@ -18029,7 +17879,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.531847432924517</v>
+        <v>1.499921485662203</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.59252535025589</v>
@@ -18118,7 +17968,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.534256725388794</v>
+        <v>1.502622487025671</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.593407015296655</v>
@@ -18207,7 +18057,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.537977346283313</v>
+        <v>1.506710960732768</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.397316366882019</v>
@@ -18296,7 +18146,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.569991139732578</v>
+        <v>1.525811097694699</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.459336491418991</v>
@@ -18385,7 +18235,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.561206882972158</v>
+        <v>1.522487343602739</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.509781795465064</v>
@@ -18474,7 +18324,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.549974675449754</v>
+        <v>1.513023683171451</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.451157206815266</v>
@@ -18563,7 +18413,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.526851732276482</v>
+        <v>1.498192426183008</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.54221892320599</v>
@@ -18652,7 +18502,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.513801493425556</v>
+        <v>1.48685850868193</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.54264102611234</v>
@@ -18741,7 +18591,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.513160285957401</v>
+        <v>1.483655639382903</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.439103836471</v>
@@ -18830,7 +18680,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.515288360521596</v>
+        <v>1.484879465726884</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.434331631945361</v>
@@ -18919,7 +18769,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.532257527798312</v>
+        <v>1.501272196351992</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.534852165269009</v>
@@ -19008,7 +18858,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.539854633948133</v>
+        <v>1.506757090431825</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.436121930489044</v>
@@ -19097,7 +18947,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.558766635724474</v>
+        <v>1.524192206719578</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.31145949336898</v>
@@ -19186,7 +19036,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.560559796167727</v>
+        <v>1.535812687211715</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.237870548736417</v>
@@ -19472,7 +19322,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530473673207716</v>
+        <v>1.539895594620517</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.304154406081327</v>
@@ -19561,7 +19411,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.546136015559027</v>
+        <v>1.545712718546076</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.162595573111816</v>
@@ -19650,7 +19500,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.560196880008038</v>
+        <v>1.552929721819802</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.131765948278305</v>
@@ -19739,7 +19589,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.51272172085887</v>
+        <v>1.494390261950697</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.362103050457861</v>
@@ -19828,7 +19678,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535179821408604</v>
+        <v>1.512240770717355</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.33545364191251</v>
@@ -19917,7 +19767,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543533509332616</v>
+        <v>1.518579617267063</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.436921143616178</v>
@@ -20006,7 +19856,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.561655582581474</v>
+        <v>1.528447172955679</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.570243829849089</v>
@@ -20095,7 +19945,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.574316263060455</v>
+        <v>1.53929697266634</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.947826231527928</v>
@@ -20184,7 +20034,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.575626002075556</v>
+        <v>1.540723207099205</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.589179743827138</v>
@@ -20273,7 +20123,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564177531636945</v>
+        <v>1.534293487968165</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.77720084354514</v>
@@ -20362,7 +20212,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592508933529933</v>
+        <v>1.556494486359447</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.097887790546676</v>
@@ -20451,7 +20301,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.594944513806953</v>
+        <v>1.553545084874681</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.774226598116368</v>
@@ -20540,7 +20390,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.589301883631728</v>
+        <v>1.548743019738638</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.613080167090084</v>
@@ -20629,7 +20479,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589612052460226</v>
+        <v>1.548663293887819</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.96636682875511</v>
@@ -20718,7 +20568,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.599216667928677</v>
+        <v>1.557724415523824</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.761896190247199</v>
@@ -20807,7 +20657,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.600923377682157</v>
+        <v>1.557334736074249</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.891785705571461</v>
@@ -20896,7 +20746,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600986174577649</v>
+        <v>1.558646177919699</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.803013162814435</v>
@@ -20985,7 +20835,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.59118294175854</v>
+        <v>1.55560917314092</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.712325902916679</v>
@@ -21074,7 +20924,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.588062626665881</v>
+        <v>1.543346130823267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.551344860486161</v>
@@ -21163,7 +21013,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.599561880847029</v>
+        <v>1.549716700476105</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.097640806841357</v>
@@ -21252,7 +21102,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.607563789659259</v>
+        <v>1.55456293377827</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.169340921509258</v>
@@ -21341,7 +21191,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.588429029680627</v>
+        <v>1.532755227599379</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.722748937495051</v>
@@ -21430,7 +21280,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588025558967074</v>
+        <v>1.527746722014866</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.828325124713713</v>
@@ -21519,7 +21369,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.600499247069105</v>
+        <v>1.538570483284027</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.06175466834965</v>
@@ -21608,7 +21458,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608179664693725</v>
+        <v>1.546012196756162</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.123209097339996</v>
@@ -21697,7 +21547,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.606340133349542</v>
+        <v>1.544833995888662</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.994338476790657</v>
@@ -21786,7 +21636,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.59446530575528</v>
+        <v>1.534509899587828</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.753597633245323</v>
@@ -21875,7 +21725,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.603073935225497</v>
+        <v>1.534193742451482</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.076196482337105</v>
@@ -21964,7 +21814,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.59939546787976</v>
+        <v>1.533213629847781</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.117157065320982</v>
@@ -22053,7 +21903,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.595240988761558</v>
+        <v>1.521907960121093</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.010968743502155</v>
@@ -22142,7 +21992,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586299577737676</v>
+        <v>1.507063774696373</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.194866366477953</v>
@@ -22231,7 +22081,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.581978220200859</v>
+        <v>1.501238760831946</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.082217577153929</v>
@@ -22320,7 +22170,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590039878517108</v>
+        <v>1.500386680567887</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.948587762400821</v>
@@ -22409,7 +22259,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588479023713786</v>
+        <v>1.502489387106255</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.015533574686939</v>
@@ -22498,7 +22348,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.581399161417873</v>
+        <v>1.503367949421762</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.962803687450629</v>
@@ -22587,7 +22437,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.583056365565855</v>
+        <v>1.504908268468761</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.095805906101868</v>
@@ -22676,7 +22526,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.603561034956978</v>
+        <v>1.534818956568762</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.914216543209508</v>
@@ -22765,7 +22615,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608173974830034</v>
+        <v>1.527550308303545</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.815507442208497</v>
@@ -22854,7 +22704,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595185820518276</v>
+        <v>1.510173673145791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.964260013809805</v>
@@ -22943,7 +22793,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.595446087226509</v>
+        <v>1.505464029011</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.892544902094274</v>
@@ -23032,7 +22882,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587496774991687</v>
+        <v>1.496026157864671</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.963117996649562</v>
@@ -23121,7 +22971,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585135224061903</v>
+        <v>1.497516306828107</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.085576247875864</v>
@@ -23210,7 +23060,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582800671757908</v>
+        <v>1.504496840837799</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.008285511731172</v>
@@ -23299,7 +23149,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588516052822806</v>
+        <v>1.508045686299197</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.730240771693961</v>
@@ -23388,7 +23238,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.585295915537962</v>
+        <v>1.513454706620078</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.722517332748009</v>
@@ -23477,7 +23327,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.588148570375055</v>
+        <v>1.525695337336381</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.977501917779931</v>
@@ -23566,7 +23416,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.591903632510304</v>
+        <v>1.529979418667772</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.776639260451562</v>
@@ -23655,7 +23505,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592618680227775</v>
+        <v>1.530755823244645</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.927272293828885</v>
@@ -23744,7 +23594,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.573143996850421</v>
+        <v>1.515323723302336</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.193287642387189</v>
@@ -23833,7 +23683,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581707882859628</v>
+        <v>1.520505861395861</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.91478913061772</v>
@@ -23922,7 +23772,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.59066015842851</v>
+        <v>1.528295732901481</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.051402105488862</v>
@@ -24011,7 +23861,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.583078543814671</v>
+        <v>1.519471583148349</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.045734644091175</v>
@@ -24100,7 +23950,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.574965375473696</v>
+        <v>1.524920920153858</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.030303270162319</v>
@@ -24189,7 +24039,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.578946193101516</v>
+        <v>1.537756273493167</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.882236722877155</v>
@@ -24278,7 +24128,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574440598870069</v>
+        <v>1.532063568015211</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.638186865096896</v>
@@ -24367,7 +24217,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.585431151037574</v>
+        <v>1.543111015031817</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.75172927460415</v>
@@ -24456,7 +24306,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.597398277130512</v>
+        <v>1.554816197214625</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.679273455803513</v>
@@ -24545,7 +24395,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.579066031348341</v>
+        <v>1.539282164860908</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.734279745121775</v>
@@ -24634,7 +24484,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.577608562453638</v>
+        <v>1.536852164456896</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.832410306804936</v>
@@ -24723,7 +24573,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.59146493885145</v>
+        <v>1.548672454951061</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.580754535099859</v>
@@ -24812,7 +24662,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.593866926240596</v>
+        <v>1.548804389137955</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.663538810153186</v>
@@ -24901,7 +24751,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.595799660219157</v>
+        <v>1.553090987114598</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.795770811691381</v>
@@ -24990,7 +24840,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.601674954280066</v>
+        <v>1.557378953675749</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.466567159896604</v>
@@ -25079,7 +24929,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.615867066198004</v>
+        <v>1.570329075209124</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.018047754437377</v>
@@ -25168,7 +25018,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.594934692296618</v>
+        <v>1.547037203413747</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.836340566387188</v>
@@ -25257,7 +25107,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.58697165722896</v>
+        <v>1.539003977831751</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.779552302034605</v>
@@ -25346,7 +25196,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.588264252885799</v>
+        <v>1.542195388996408</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.640678334343612</v>
@@ -25435,7 +25285,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.584632659871829</v>
+        <v>1.539569022878423</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.739803378312035</v>
@@ -25721,7 +25571,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.369296922087106</v>
+        <v>1.348368787530946</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.568962808044535</v>
@@ -25810,7 +25660,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.364297900947995</v>
+        <v>1.341588298176842</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.561426307642118</v>
@@ -25899,7 +25749,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.450009992322377</v>
+        <v>1.427055291493842</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.572505658182141</v>
@@ -25988,7 +25838,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.440862598081988</v>
+        <v>1.421378401431922</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.720187312663499</v>
@@ -26077,7 +25927,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.583823051244094</v>
+        <v>1.573246119427834</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.188699435268533</v>
@@ -26166,7 +26016,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.58337579159536</v>
+        <v>1.57502888421531</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.588688451607181</v>
@@ -26255,7 +26105,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60725552198232</v>
+        <v>1.597686863815792</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.939919812533767</v>
@@ -26344,7 +26194,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61795285962597</v>
+        <v>1.613312356707937</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.066332551606505</v>
@@ -26433,7 +26283,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61776444529568</v>
+        <v>1.610605730862472</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.695403976066886</v>
@@ -26522,7 +26372,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607828641791105</v>
+        <v>1.604962905675402</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.93243696370704</v>
@@ -26611,7 +26461,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636863041438742</v>
+        <v>1.622745115497919</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.169901638412092</v>
@@ -26700,7 +26550,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.641686262352137</v>
+        <v>1.620720206028531</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.26012304915351</v>
@@ -26789,7 +26639,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.636179495273097</v>
+        <v>1.609382179060573</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.189457482267615</v>
@@ -26878,7 +26728,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.64820314243218</v>
+        <v>1.614322629081412</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.022901712135505</v>
@@ -26967,7 +26817,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654091579730572</v>
+        <v>1.62083860822879</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.195423276791863</v>
@@ -27056,7 +26906,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668167668637649</v>
+        <v>1.627986357066933</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.226478064403075</v>
@@ -27145,7 +26995,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.674050080605556</v>
+        <v>1.628495422388958</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.281759260493778</v>
@@ -27234,7 +27084,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.663177875715866</v>
+        <v>1.622735397934147</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.20073378502593</v>
@@ -27323,7 +27173,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664991020422085</v>
+        <v>1.616821549655068</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.999225884304792</v>
@@ -27412,7 +27262,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.658024953390502</v>
+        <v>1.610108977392643</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.141815980517538</v>
@@ -27501,7 +27351,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.66094596000257</v>
+        <v>1.608589138561276</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.366939746889859</v>
@@ -27590,7 +27440,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.663610821856936</v>
+        <v>1.605364823856605</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.156107831636329</v>
@@ -27679,7 +27529,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.642273378330544</v>
+        <v>1.58609097488708</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.247778409637243</v>
@@ -27768,7 +27618,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.649154254038175</v>
+        <v>1.593307521656538</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.328743407578245</v>
@@ -27857,7 +27707,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.6557544648647</v>
+        <v>1.590389771129896</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.518098459848805</v>
@@ -27946,7 +27796,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.656696161899811</v>
+        <v>1.591499314776335</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.468077167938822</v>
@@ -28035,7 +27885,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.657179399342084</v>
+        <v>1.591098063484873</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.300485980686538</v>
@@ -28124,7 +27974,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.659875926470678</v>
+        <v>1.600036781021074</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.337235967542779</v>
@@ -28213,7 +28063,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.654676058953432</v>
+        <v>1.597145190795505</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.172639285324578</v>
@@ -28302,7 +28152,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.647703678067935</v>
+        <v>1.590060427096842</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.671053487035794</v>
@@ -28391,7 +28241,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.647814157074697</v>
+        <v>1.585459915678296</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.54750100478232</v>
@@ -28480,7 +28330,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643744454711428</v>
+        <v>1.580525756852661</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.657946179757585</v>
@@ -28569,7 +28419,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648423075249124</v>
+        <v>1.591730356378393</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.535753414698157</v>
@@ -28658,7 +28508,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.637910442921542</v>
+        <v>1.587736505321022</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.607848613796873</v>
@@ -28747,7 +28597,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.639151713569969</v>
+        <v>1.591699810630631</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.641184871220221</v>
@@ -28836,7 +28686,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605282770469272</v>
+        <v>1.572007640943551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.430837980145533</v>
@@ -28925,7 +28775,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608818779634393</v>
+        <v>1.57121041762984</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.4627520153128</v>
@@ -29014,7 +28864,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.636747693238286</v>
+        <v>1.59333987710473</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.495327389578385</v>
@@ -29103,7 +28953,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632786037188814</v>
+        <v>1.578667382111054</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.454727107573602</v>
@@ -29192,7 +29042,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.633063909447494</v>
+        <v>1.577169616931208</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.53394298524687</v>
@@ -29281,7 +29131,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62966586831923</v>
+        <v>1.567131796682809</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.532133410841075</v>
@@ -29370,7 +29220,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624007683232518</v>
+        <v>1.557600033931728</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.455511555185167</v>
@@ -29459,7 +29309,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62365817624192</v>
+        <v>1.556732863267088</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.472849806626083</v>
@@ -29548,7 +29398,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625331479414877</v>
+        <v>1.553635540531109</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.487804613101439</v>
@@ -29637,7 +29487,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.626871600881447</v>
+        <v>1.552220514509917</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.464424276012787</v>
@@ -29726,7 +29576,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564587961451566</v>
+        <v>1.51195245872071</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.251101321539273</v>
@@ -29815,7 +29665,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.558623950766172</v>
+        <v>1.507418443283552</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.152637996335607</v>
@@ -29904,7 +29754,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.565686601692808</v>
+        <v>1.50819185512685</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.300341059598201</v>
@@ -29993,7 +29843,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.574506363295689</v>
+        <v>1.511817080017969</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.241038678104243</v>
@@ -30082,7 +29932,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.575692571273723</v>
+        <v>1.505693070759071</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.096174821853359</v>
@@ -30171,7 +30021,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.596189346952267</v>
+        <v>1.519825046095219</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.232282329359457</v>
@@ -30260,7 +30110,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.584951632402819</v>
+        <v>1.509604217350257</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.229856154816484</v>
@@ -30349,7 +30199,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.580110693025666</v>
+        <v>1.506715047811576</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.131175889466658</v>
@@ -30438,7 +30288,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.58102148581821</v>
+        <v>1.518152195862163</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.235159483969796</v>
@@ -30527,7 +30377,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.586326878284984</v>
+        <v>1.533040482927915</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.200343773350281</v>
@@ -30616,7 +30466,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.588714621591816</v>
+        <v>1.54041480064074</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.105106270425734</v>
@@ -30705,7 +30555,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.586122744833732</v>
+        <v>1.543333335174187</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.157852584015947</v>
@@ -30794,7 +30644,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.587914280504281</v>
+        <v>1.541922574839905</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.134914764911699</v>
@@ -30883,7 +30733,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586694037270661</v>
+        <v>1.54324262419745</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.162663318466617</v>
@@ -30972,7 +30822,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.612635450614087</v>
+        <v>1.553880938817269</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.04425219024166</v>
@@ -31061,7 +30911,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.668205123571532</v>
+        <v>1.595008221503767</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.602352954967764</v>
@@ -31150,7 +31000,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.688099715739185</v>
+        <v>1.613112630546079</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.576336868625624</v>
@@ -31239,7 +31089,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.686137948973248</v>
+        <v>1.611808379459415</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.729125777684421</v>
@@ -31328,7 +31178,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.680566018164518</v>
+        <v>1.608943275940243</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.638662262652679</v>
@@ -31417,7 +31267,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.689145439764617</v>
+        <v>1.618196774929626</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.715675053434198</v>
@@ -31506,7 +31356,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.692352528666488</v>
+        <v>1.618863994370914</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.431738519406364</v>
@@ -31595,7 +31445,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.698661532400657</v>
+        <v>1.625004624682189</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.88979655081419</v>
@@ -31684,7 +31534,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.6930667439783</v>
+        <v>1.619915370178929</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.689609318916609</v>
@@ -31970,7 +31820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457035955216706</v>
+        <v>1.473739867884179</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.128997678707333</v>
@@ -32059,7 +31909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470998854825994</v>
+        <v>1.490635417123355</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.100363148193078</v>
@@ -32148,7 +31998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.484612398556687</v>
+        <v>1.500976481149703</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.922992729425707</v>
@@ -32237,7 +32087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.42711049579297</v>
+        <v>1.434386730915704</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.191974554888552</v>
@@ -32326,7 +32176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.411675424631343</v>
+        <v>1.421932443554554</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.118390257168182</v>
@@ -32415,7 +32265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445039663936066</v>
+        <v>1.461657477170665</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.967678268589024</v>
@@ -32504,7 +32354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.428299340881205</v>
+        <v>1.443141039278687</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.254438465503709</v>
@@ -32593,7 +32443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.420697807134834</v>
+        <v>1.43997521170999</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.185790871981673</v>
@@ -32682,7 +32532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.421923891664096</v>
+        <v>1.445101087189936</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.126175109014275</v>
@@ -32771,7 +32621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.427686879206552</v>
+        <v>1.451577326542221</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.293139261204187</v>
@@ -32860,7 +32710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.449820572918428</v>
+        <v>1.470424242257315</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.127585329797992</v>
@@ -32949,7 +32799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.448330778725835</v>
+        <v>1.467924085025187</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.164019133624588</v>
@@ -33038,7 +32888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.47994603441339</v>
+        <v>1.493768113250243</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.104653869787692</v>
@@ -33127,7 +32977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.485623378844963</v>
+        <v>1.4962703495447</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.163117904420469</v>
@@ -33216,7 +33066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493153855569956</v>
+        <v>1.501075674275807</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.071044750002943</v>
@@ -33305,7 +33155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.494116568841027</v>
+        <v>1.498654063713357</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.097511400933073</v>
@@ -33394,7 +33244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.483024797327342</v>
+        <v>1.484634936946503</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.087282833276474</v>
@@ -33483,7 +33333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.478482365631439</v>
+        <v>1.482926241879253</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.040807996400095</v>
@@ -33572,7 +33422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.526038498180288</v>
+        <v>1.530366461343417</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.30929174515017</v>
@@ -33661,7 +33511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.4757106850718</v>
+        <v>1.484300977207049</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.078322093681818</v>
@@ -33750,7 +33600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.475982832719309</v>
+        <v>1.478421181166303</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.109945373697898</v>
@@ -33839,7 +33689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514058593427584</v>
+        <v>1.505869525856565</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.195377143323061</v>
@@ -33928,7 +33778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.520628847204939</v>
+        <v>1.508797382008183</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.085765957550219</v>
@@ -34017,7 +33867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.517588260897697</v>
+        <v>1.506426137802216</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.086259634263056</v>
@@ -34106,7 +33956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.508222802126333</v>
+        <v>1.494414877249871</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.04433913262746</v>
@@ -34195,7 +34045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.513322850475002</v>
+        <v>1.496535050989942</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.000063876980935</v>
@@ -34284,7 +34134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.505678292331351</v>
+        <v>1.488360707817661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.055459550888193</v>
@@ -34373,7 +34223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.506337355589081</v>
+        <v>1.4866021948521</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.082227200846046</v>
@@ -34462,7 +34312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.491810420514244</v>
+        <v>1.473138229778765</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.044332823190313</v>
@@ -34551,7 +34401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.490089850667787</v>
+        <v>1.472703057334049</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.083486559682239</v>
@@ -34640,7 +34490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488018687142604</v>
+        <v>1.473653050449696</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.09263846827429</v>
@@ -34729,7 +34579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.492169008749572</v>
+        <v>1.46940180568125</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.12709874182797</v>
@@ -34818,7 +34668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486318010955021</v>
+        <v>1.464919455051899</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.019890444239464</v>
@@ -34907,7 +34757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501786216011665</v>
+        <v>1.475919200836375</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.126894594197434</v>
@@ -34996,7 +34846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.495185773178929</v>
+        <v>1.46710836593053</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.134402959371775</v>
@@ -35085,7 +34935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.492021240241933</v>
+        <v>1.47011860505507</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.05335193575389</v>
@@ -35174,7 +35024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.487629763690366</v>
+        <v>1.468271008556349</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.079849197028969</v>
@@ -35263,7 +35113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.495858867182277</v>
+        <v>1.474375119657846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.125546725763803</v>
@@ -35352,7 +35202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.487178246527813</v>
+        <v>1.466537279278828</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.130264636020387</v>
@@ -35441,7 +35291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.461332982986325</v>
+        <v>1.44360171981602</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.084122782384027</v>
@@ -35530,7 +35380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.451711451070302</v>
+        <v>1.441597954083971</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.188814338724148</v>
@@ -35619,7 +35469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.453162151516776</v>
+        <v>1.443485980486623</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.153356815699934</v>
@@ -35708,7 +35558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.458983316904973</v>
+        <v>1.453584963074742</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.118891789472272</v>
@@ -35797,7 +35647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.455432134946144</v>
+        <v>1.450443981687142</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.141913176504437</v>
@@ -35886,7 +35736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.448680458038171</v>
+        <v>1.432595284372187</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.174277404456057</v>
@@ -35975,7 +35825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.40239756886088</v>
+        <v>1.400428019335762</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.160878680467838</v>
@@ -36064,7 +35914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.399031262817123</v>
+        <v>1.40400386581701</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.093102820819367</v>
@@ -36153,7 +36003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.396288111079805</v>
+        <v>1.400105476186208</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.077515325595767</v>
@@ -36242,7 +36092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.397192325947935</v>
+        <v>1.400012773263521</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.240805185412679</v>
@@ -36331,7 +36181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.435593265984919</v>
+        <v>1.439150440521081</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.11046006388442</v>
@@ -36420,7 +36270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.401309197904785</v>
+        <v>1.403475785275603</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.125024959734705</v>
@@ -36509,7 +36359,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.390149127881525</v>
+        <v>1.400222547283882</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.137298812626529</v>
@@ -36598,7 +36448,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.384115528513107</v>
+        <v>1.395600948794105</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.07654192158645</v>
@@ -36687,7 +36537,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.390780786105818</v>
+        <v>1.401155475299774</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.090542792608447</v>
@@ -36776,7 +36626,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.405971467259767</v>
+        <v>1.41325206082942</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.130808684315556</v>
@@ -36865,7 +36715,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.398847311909179</v>
+        <v>1.406645896883396</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.043761210409076</v>
@@ -36954,7 +36804,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.394309849437754</v>
+        <v>1.398893557287831</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.111930159764094</v>
@@ -37043,7 +36893,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.399676821375872</v>
+        <v>1.40117682689132</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.170176703944596</v>
@@ -37132,7 +36982,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.376895136515751</v>
+        <v>1.38151056810104</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.113167567300906</v>
@@ -37221,7 +37071,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.411231191247327</v>
+        <v>1.409390800176984</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.867540081272107</v>
@@ -37310,7 +37160,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.432719798358166</v>
+        <v>1.428817432171028</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.082000455032047</v>
@@ -37399,7 +37249,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.433447842393569</v>
+        <v>1.429306735502102</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.107253391326853</v>
@@ -37488,7 +37338,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.435444034045291</v>
+        <v>1.432260364402988</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.166545009321246</v>
@@ -37577,7 +37427,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.433923370604687</v>
+        <v>1.426001203633469</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.082192050659428</v>
@@ -37666,7 +37516,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.429989619983906</v>
+        <v>1.418429606093138</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.07451552912672</v>
@@ -37755,7 +37605,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.471422544094354</v>
+        <v>1.450430471083455</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.047245971547007</v>
@@ -37844,7 +37694,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.473471510189565</v>
+        <v>1.454354470298464</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.181120872198865</v>
@@ -37933,7 +37783,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.445273361870247</v>
+        <v>1.429386885786752</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.089182184642258</v>
@@ -38219,7 +38069,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.382071599522492</v>
+        <v>1.404800776026754</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.97952538119639</v>
@@ -38308,7 +38158,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.367964632385669</v>
+        <v>1.391424895073607</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.98979440866983</v>
@@ -38397,7 +38247,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.38575931651251</v>
+        <v>1.401664220269</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.795157047443274</v>
@@ -38486,7 +38336,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.323686856239821</v>
+        <v>1.334015163380203</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.095995876118746</v>
@@ -38575,7 +38425,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.314463247603614</v>
+        <v>1.318813654491095</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.804619384286613</v>
@@ -38664,7 +38514,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.330640581960341</v>
+        <v>1.333736952740826</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.994206685535708</v>
@@ -38753,7 +38603,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.324925009498659</v>
+        <v>1.326119019846643</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.980238590673004</v>
@@ -38842,7 +38692,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.314164381339246</v>
+        <v>1.323479373367803</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.973008052683708</v>
@@ -38931,7 +38781,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.310002329958703</v>
+        <v>1.317367105461541</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.969201637606129</v>
@@ -39020,7 +38870,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.317515456285824</v>
+        <v>1.325136803906779</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.849810239580667</v>
@@ -39109,7 +38959,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.322563664389476</v>
+        <v>1.334067878842482</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.89800046630287</v>
@@ -39198,7 +39048,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.323345811366574</v>
+        <v>1.337394377481807</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.056037475358322</v>
@@ -39287,7 +39137,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.327427069008398</v>
+        <v>1.338409839809773</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.9936364460734</v>
@@ -39376,7 +39226,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.336309396801171</v>
+        <v>1.347757566340509</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.91322717278214</v>
@@ -39465,7 +39315,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.33995728107865</v>
+        <v>1.350899379669283</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.92453027819217</v>
@@ -39554,7 +39404,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.341257698278643</v>
+        <v>1.350240413398273</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.913498123018477</v>
@@ -39643,7 +39493,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.352928101852952</v>
+        <v>1.356770811481792</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.931767692339361</v>
@@ -39732,7 +39582,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.345791036135331</v>
+        <v>1.345773022099787</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.9957600419605</v>
@@ -39821,7 +39671,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.381969743581378</v>
+        <v>1.378860259209418</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.831424547968432</v>
@@ -39910,7 +39760,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.380954073729173</v>
+        <v>1.371900584050158</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.324821495385355</v>
@@ -39999,7 +39849,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.37983707909464</v>
+        <v>1.370162528478678</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.498646166474432</v>
@@ -40088,7 +39938,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.3813990038517</v>
+        <v>1.369001755037346</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.421327296466441</v>
@@ -40177,7 +40027,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.385266132958766</v>
+        <v>1.368379963287968</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.763138578753028</v>
@@ -40266,7 +40116,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.387988256206519</v>
+        <v>1.372719170834615</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.862396080899837</v>
@@ -40355,7 +40205,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.390134163077656</v>
+        <v>1.372179386555076</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.707138587664343</v>
@@ -40444,7 +40294,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.390142762406363</v>
+        <v>1.371614295101646</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.808474266409163</v>
@@ -40533,7 +40383,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.386344706013052</v>
+        <v>1.365959932765758</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.668352206727093</v>
@@ -40622,7 +40472,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.392241802443806</v>
+        <v>1.375620153209273</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.807987379857103</v>
@@ -40711,7 +40561,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.386446472485335</v>
+        <v>1.369647928319653</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.830022391180334</v>
@@ -40800,7 +40650,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.390819169514714</v>
+        <v>1.370868268197393</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.6989912486698</v>
@@ -40889,7 +40739,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.391085290199275</v>
+        <v>1.367478363314174</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.842650959949825</v>
@@ -40978,7 +40828,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.386868994498533</v>
+        <v>1.36156111998729</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.799583626043758</v>
@@ -41067,7 +40917,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.389047511244007</v>
+        <v>1.368132738293583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.48155876613018</v>
@@ -41156,7 +41006,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.385109961523117</v>
+        <v>1.367408738924849</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.417254096761641</v>
@@ -41245,7 +41095,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.375112031650318</v>
+        <v>1.359539099192258</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.60458893482161</v>
@@ -41334,7 +41184,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.379433809850984</v>
+        <v>1.367835393797906</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.505391486631351</v>
@@ -41423,7 +41273,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.370687703190814</v>
+        <v>1.358218152590627</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.59420221965028</v>
@@ -41512,7 +41362,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.373043236610496</v>
+        <v>1.361173500525067</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.470508809959639</v>
@@ -41601,7 +41451,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.376596743442714</v>
+        <v>1.35838360441183</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.652074287350386</v>
@@ -41690,7 +41540,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.382737755748285</v>
+        <v>1.365554246195151</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.615504357488243</v>
@@ -41779,7 +41629,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.392661365918389</v>
+        <v>1.36486914054191</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.528961884384984</v>
@@ -41868,7 +41718,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.394693464946499</v>
+        <v>1.365420180767908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.619832230126381</v>
@@ -41957,7 +41807,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.394053451908807</v>
+        <v>1.364016568568186</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.653928672589945</v>
@@ -42046,7 +41896,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.399972731070669</v>
+        <v>1.36858969889432</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.658705801499361</v>
@@ -42135,7 +41985,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.399087286040025</v>
+        <v>1.367762357183608</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.669157190713795</v>
@@ -42224,7 +42074,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.399957125934894</v>
+        <v>1.372809694461034</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.622804359107036</v>
@@ -42313,7 +42163,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.404280454719771</v>
+        <v>1.382770718176145</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.531295160249633</v>
@@ -42402,7 +42252,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.421963756207313</v>
+        <v>1.398177578229971</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.46275839245908</v>
@@ -42491,7 +42341,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.421970983472849</v>
+        <v>1.395912300067746</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.440573620203186</v>
@@ -42580,7 +42430,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.430197001672457</v>
+        <v>1.401356147253633</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.220648396314934</v>
@@ -42669,7 +42519,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.420647054459</v>
+        <v>1.394897067336893</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.388727736350559</v>
@@ -42758,7 +42608,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.429071343025443</v>
+        <v>1.405177612912791</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.533456245588805</v>
@@ -42847,7 +42697,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.424778556094225</v>
+        <v>1.399281150943112</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.665086151306944</v>
@@ -42936,7 +42786,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.414981577169535</v>
+        <v>1.397842022133518</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.519682506628203</v>
@@ -43025,7 +42875,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.410590661173432</v>
+        <v>1.394941111189103</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.520794410875282</v>
@@ -43114,7 +42964,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.409088090341935</v>
+        <v>1.395884780331535</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.537020153274904</v>
@@ -43203,7 +43053,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.411604865290444</v>
+        <v>1.398244665492694</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.465263336919301</v>
@@ -43292,7 +43142,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.41164440925393</v>
+        <v>1.39618461820668</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.486998182234223</v>
@@ -43381,7 +43231,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.396487925660057</v>
+        <v>1.383627193866445</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.459437308235973</v>
@@ -43470,7 +43320,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.406454193675346</v>
+        <v>1.394247452955783</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.44387870548447</v>
@@ -43559,7 +43409,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.401879885373461</v>
+        <v>1.387625562068788</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.429565007593468</v>
@@ -43648,7 +43498,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.397626875641538</v>
+        <v>1.385997165627299</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.359212755962907</v>
@@ -43737,7 +43587,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.395324774899743</v>
+        <v>1.382334718399771</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.407180472914108</v>
@@ -43826,7 +43676,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.395513945682992</v>
+        <v>1.380241649262917</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.335012750299929</v>
@@ -43915,7 +43765,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.401671720658009</v>
+        <v>1.38332192092906</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.360389376999575</v>
@@ -44004,7 +43854,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.401778100190479</v>
+        <v>1.379978932356664</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.565929518000431</v>
@@ -44093,7 +43943,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.410607349155385</v>
+        <v>1.387809306772525</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.692356561473696</v>
@@ -44182,7 +44032,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.408368397984874</v>
+        <v>1.387033008197665</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.675341757254451</v>
